--- a/embryo-machine/checklist.xlsx
+++ b/embryo-machine/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/embryo-machine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC95C7-EEE2-864C-A4AE-BD7E9D50DDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D11CC-0007-1046-9969-B182E288BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{016DFFAA-8F69-B546-A90A-AC68A3AC46AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>year</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Dashing! Desert Nights 2</t>
-  </si>
-  <si>
-    <t>jive</t>
   </si>
   <si>
     <t>desert_nights_2.jpg</t>
@@ -547,7 +544,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:F15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,10 +805,10 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -822,16 +819,16 @@
         <v>2009</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -842,16 +839,16 @@
         <v>2010</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
